--- a/model/compared_results/oil_result/oil_results.xlsx
+++ b/model/compared_results/oil_result/oil_results.xlsx
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9477</v>
+        <v>0.9445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7056</v>
+        <v>0.6778</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9587</v>
+        <v>0.9565</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7597</v>
+        <v>0.7393999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8181</v>
+        <v>0.797</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9405</v>
+        <v>0.9203</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5684</v>
+        <v>0.5513</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7307</v>
+        <v>0.7024</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8321</v>
+        <v>0.8171</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +526,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9424</v>
+        <v>0.9403</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7028</v>
+        <v>0.6833</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9530999999999999</v>
+        <v>0.952</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7416</v>
+        <v>0.7346</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8128</v>
+        <v>0.7988</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9276</v>
+        <v>0.9284</v>
       </c>
       <c r="H3" t="n">
-        <v>0.587</v>
+        <v>0.5797</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7025</v>
+        <v>0.6977</v>
       </c>
       <c r="J3" t="n">
-        <v>0.828</v>
+        <v>0.8177</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +560,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8688</v>
+        <v>0.872</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7778</v>
+        <v>0.7528</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8728</v>
+        <v>0.8772</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6374</v>
+        <v>0.6355</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8214</v>
+        <v>0.8107</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9151</v>
+        <v>0.9244</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5415</v>
+        <v>0.5358000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6075</v>
+        <v>0.6052</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8253</v>
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +594,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.904</v>
+        <v>0.8762</v>
       </c>
       <c r="C5" t="n">
         <v>0.7778</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9096</v>
+        <v>0.8806</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6814</v>
+        <v>0.6446</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8389</v>
+        <v>0.8256</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9326</v>
+        <v>0.9273</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5487</v>
+        <v>0.5881</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6372</v>
+        <v>0.6112</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8437</v>
+        <v>0.8292</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +628,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8986</v>
+        <v>0.84</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5806</v>
+        <v>0.5111</v>
       </c>
       <c r="D6" t="n">
-        <v>0.913</v>
+        <v>0.855</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6478</v>
+        <v>0.5646</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7222</v>
+        <v>0.6483</v>
       </c>
       <c r="G6" t="n">
-        <v>0.853</v>
+        <v>0.8257</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4156</v>
+        <v>0.2549</v>
       </c>
       <c r="I6" t="n">
-        <v>0.622</v>
+        <v>0.5617</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7468</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8196</v>
+        <v>0.841</v>
       </c>
       <c r="C7" t="n">
-        <v>0.925</v>
+        <v>0.85</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8147</v>
+        <v>0.8404</v>
       </c>
       <c r="E7" t="n">
-        <v>0.603</v>
+        <v>0.6153</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8663999999999999</v>
+        <v>0.8436</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.9234</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5007</v>
+        <v>0.4809</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5911999999999999</v>
+        <v>0.5953000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8699</v>
+        <v>0.8452</v>
       </c>
     </row>
     <row r="8">
@@ -779,10 +779,10 @@
         <v>0.6518</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8504</v>
+        <v>0.8505</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4964</v>
+        <v>0.4965</v>
       </c>
       <c r="I10" t="n">
         <v>0.7661</v>

--- a/model/compared_results/oil_result/oil_results.xlsx
+++ b/model/compared_results/oil_result/oil_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9445</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6778</v>
+        <v>0.6306</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9565</v>
+        <v>0.9509</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7393999999999999</v>
+        <v>0.7175</v>
       </c>
       <c r="F2" t="n">
-        <v>0.797</v>
+        <v>0.7725</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9203</v>
+        <v>0.9136</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5513</v>
+        <v>0.5343</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7024</v>
+        <v>0.6788</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8171</v>
+        <v>0.7907</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +526,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9403</v>
+        <v>0.9349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6833</v>
+        <v>0.6083</v>
       </c>
       <c r="D3" t="n">
-        <v>0.952</v>
+        <v>0.9498</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7346</v>
+        <v>0.7076</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7988</v>
+        <v>0.7548</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9284</v>
+        <v>0.9355</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5797</v>
+        <v>0.5635</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6977</v>
+        <v>0.6794</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8177</v>
+        <v>0.7791</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +560,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.872</v>
+        <v>0.8741</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7528</v>
+        <v>0.8028</v>
       </c>
       <c r="D4" t="n">
         <v>0.8772</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6355</v>
+        <v>0.6463</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8107</v>
+        <v>0.8379</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9244</v>
+        <v>0.9359</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5358000000000001</v>
+        <v>0.5555</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6052</v>
+        <v>0.6128</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +594,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8762</v>
+        <v>0.889</v>
       </c>
       <c r="C5" t="n">
         <v>0.7778</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8806</v>
+        <v>0.894</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6446</v>
+        <v>0.6616</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8256</v>
+        <v>0.8316</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9273</v>
+        <v>0.9311</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5881</v>
+        <v>0.5797</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6112</v>
+        <v>0.6235000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8292</v>
+        <v>0.8359</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +628,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.84</v>
+        <v>0.9114</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5111</v>
+        <v>0.5806</v>
       </c>
       <c r="D6" t="n">
-        <v>0.855</v>
+        <v>0.9263</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5646</v>
+        <v>0.6513</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6483</v>
+        <v>0.6925</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8257</v>
+        <v>0.8514</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2549</v>
+        <v>0.3578</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5617</v>
+        <v>0.6219</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.7534</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.841</v>
+        <v>0.8293</v>
       </c>
       <c r="C7" t="n">
         <v>0.85</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8404</v>
+        <v>0.8280999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6153</v>
+        <v>0.604</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8436</v>
+        <v>0.8367</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9234</v>
+        <v>0.9331</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4809</v>
+        <v>0.4769</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5953000000000001</v>
+        <v>0.5896</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8452</v>
+        <v>0.8391</v>
       </c>
     </row>
     <row r="8">
@@ -779,16 +779,220 @@
         <v>0.6518</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8505</v>
+        <v>0.8504</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4965</v>
+        <v>0.4964</v>
       </c>
       <c r="I10" t="n">
         <v>0.7661</v>
       </c>
       <c r="J10" t="n">
         <v>0.7091</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CatBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9626</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3861</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9888</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7261</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9122</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5621</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.8006</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SMOTEBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9616</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6083</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9777</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7751</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.839</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.4647</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.7692</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.793</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>OverBaggingClassifier</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9616</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2667</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9933</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6707</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.4998</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9054</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5011</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.8687</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>OverBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7438</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7323</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8465</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5089</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.7373</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.7647</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SMOTEBaggingClassifier</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9626</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3139</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9922</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6954</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.5465</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9252</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5421</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.8669</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.653</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>KmeansSMOTEBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9616</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4694</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9844000000000001</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7409</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.6631</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8099</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4582</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.7829</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.7269</v>
       </c>
     </row>
   </sheetData>
